--- a/python/api/SEM/BEP/data/crookness.xlsx
+++ b/python/api/SEM/BEP/data/crookness.xlsx
@@ -5,17 +5,27 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents Personnels\jlanderc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlanderc\PycharmProjects\cookbook\python\api\SEM\BEP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED39CC06-E33C-4B35-8895-002329CB702D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518A55B0-AC67-4BEF-9CAB-A141F4B99EDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11690" yWindow="840" windowWidth="8330" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2495,8 +2505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1078"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C94" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="H31" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4411,7 +4421,7 @@
         <v>229.68978950084829</v>
       </c>
       <c r="G83">
-        <v>60</v>
+        <v>284</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -4503,7 +4513,7 @@
         <v>1469.5053693343571</v>
       </c>
       <c r="G87">
-        <v>883</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
